--- a/biology/Botanique/Koenigia/Koenigia.xlsx
+++ b/biology/Botanique/Koenigia/Koenigia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Koenigia est un genre de plantes à fleurs herbacées annuelles à racine pivotante de la famille des Polygonaceae. Il comprend une trentaine d'espèces réparties dans tout l'hémisphère nord. Koenigia islandica est l'espèce type.
 </t>
@@ -513,10 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Ce sont des herbacées annuelles à racine pivotante. Les tiges décombantes, ascendantes ou dressées, glabres. Les feuilles caulinaires sont alternes ou sub-opposées, pétiolées ; l'ochréa est persistant, chartacé. Le limbe foliaire est spatulé-ovale à orbiculaire, à bords entiers[2].
-Appareil reproducteur
-Les inflorescences sont terminales, en panicule ou en cyme, non pédonculées. Les pédicelles sont absents ou présents. Les fleurs sont bisexuées, de trois à dix par fascicule incréé, les bases non stippelées ; le périanthe est non accrescent, verdâtre, souvent teinté de blanc ou de rose au niveau distal, étroitement campanulé, glabre ou parfois doté de glandes éparses ; les tépales, par trois ou rarement quatre, sont distincts, sépaloïdes, monomorphes ; les étamines sont au nombre de une à cinq, le plus souvent trois ; les filaments sont distincts, libres, glabres ; les anthères sont blanches ou jaunâtres, ovales à elliptiques ; les deux ou trois styles sont dressés, distincts ; les stigmates sont capitonnés. Les fruits sont des akènes inclus ou à peine exsudés, brun clair ou brun à noir, non ailés, irrégulièrement bi-gonoïdes, rarement tri-gonoïdes, glabres. L'embryon des graines est incurvé[2].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des herbacées annuelles à racine pivotante. Les tiges décombantes, ascendantes ou dressées, glabres. Les feuilles caulinaires sont alternes ou sub-opposées, pétiolées ; l'ochréa est persistant, chartacé. Le limbe foliaire est spatulé-ovale à orbiculaire, à bords entiers.
 </t>
         </is>
       </c>
@@ -542,12 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les inflorescences sont terminales, en panicule ou en cyme, non pédonculées. Les pédicelles sont absents ou présents. Les fleurs sont bisexuées, de trois à dix par fascicule incréé, les bases non stippelées ; le périanthe est non accrescent, verdâtre, souvent teinté de blanc ou de rose au niveau distal, étroitement campanulé, glabre ou parfois doté de glandes éparses ; les tépales, par trois ou rarement quatre, sont distincts, sépaloïdes, monomorphes ; les étamines sont au nombre de une à cinq, le plus souvent trois ; les filaments sont distincts, libres, glabres ; les anthères sont blanches ou jaunâtres, ovales à elliptiques ; les deux ou trois styles sont dressés, distincts ; les stigmates sont capitonnés. Les fruits sont des akènes inclus ou à peine exsudés, brun clair ou brun à noir, non ailés, irrégulièrement bi-gonoïdes, rarement tri-gonoïdes, glabres. L'embryon des graines est incurvé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Koenigia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Koenigia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (3 juin 2021)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (3 juin 2021) :
 Koenigia ajanensis (Regel &amp; Tiling)
 Koenigia alaskana (Small) T.M.Schust. &amp; Reveal
 Koenigia alpina (All.) T.M.Schust. &amp; Reveal
@@ -609,33 +663,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Koenigia</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Koenigia</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Les genres suivants sont synonymes de Koenigia[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Les genres suivants sont synonymes de Koenigia :
 Aconogonon (Meisn.) Rchb.
 Macounastrum Small
 Pleuropteropyrum H.Gross
